--- a/Financials/Yearly/VEOEY_YR_FIN.xlsx
+++ b/Financials/Yearly/VEOEY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5731291-8C5C-41AB-8DE8-8BCC408E56E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEOEY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>VEOEY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,143 +689,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29491500</v>
+        <v>29072000</v>
       </c>
       <c r="E8" s="3">
-        <v>28390900</v>
+        <v>27846000</v>
       </c>
       <c r="F8" s="3">
-        <v>29303900</v>
+        <v>27137600</v>
       </c>
       <c r="G8" s="3">
-        <v>28030100</v>
+        <v>28010300</v>
       </c>
       <c r="H8" s="3">
-        <v>26786000</v>
+        <v>26792700</v>
       </c>
       <c r="I8" s="3">
-        <v>27278100</v>
+        <v>25603500</v>
       </c>
       <c r="J8" s="3">
+        <v>26073800</v>
+      </c>
+      <c r="K8" s="3">
         <v>26390100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24148400</v>
+        <v>24001500</v>
       </c>
       <c r="E9" s="3">
-        <v>23143000</v>
+        <v>22808400</v>
       </c>
       <c r="F9" s="3">
-        <v>23984800</v>
+        <v>22121300</v>
       </c>
       <c r="G9" s="3">
-        <v>47022500</v>
+        <v>22926000</v>
       </c>
       <c r="H9" s="3">
-        <v>45081300</v>
+        <v>44946600</v>
       </c>
       <c r="I9" s="3">
-        <v>22963200</v>
+        <v>43091100</v>
       </c>
       <c r="J9" s="3">
+        <v>21949500</v>
+      </c>
+      <c r="K9" s="3">
         <v>22163100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5343100</v>
+        <v>5070500</v>
       </c>
       <c r="E10" s="3">
-        <v>5248000</v>
+        <v>5037600</v>
       </c>
       <c r="F10" s="3">
-        <v>5319100</v>
+        <v>5016300</v>
       </c>
       <c r="G10" s="3">
-        <v>-18992400</v>
+        <v>5084300</v>
       </c>
       <c r="H10" s="3">
-        <v>-18295400</v>
+        <v>-18153900</v>
       </c>
       <c r="I10" s="3">
-        <v>4314800</v>
+        <v>-17487700</v>
       </c>
       <c r="J10" s="3">
+        <v>4124300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4227000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,8 +849,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -816,21 +864,24 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
-        <v>91700</v>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>96100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>87600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>91900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,36 +906,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>518400</v>
+        <v>448100</v>
       </c>
       <c r="E14" s="3">
-        <v>532600</v>
+        <v>484100</v>
       </c>
       <c r="F14" s="3">
-        <v>443000</v>
+        <v>509000</v>
       </c>
       <c r="G14" s="3">
-        <v>821700</v>
+        <v>423400</v>
       </c>
       <c r="H14" s="3">
-        <v>141600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>785400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>135300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,9 +966,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -920,62 +980,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28098900</v>
+        <v>27609300</v>
       </c>
       <c r="E17" s="3">
-        <v>27100800</v>
+        <v>26539800</v>
       </c>
       <c r="F17" s="3">
-        <v>28010200</v>
+        <v>25904400</v>
       </c>
       <c r="G17" s="3">
-        <v>27535700</v>
+        <v>26773600</v>
       </c>
       <c r="H17" s="3">
-        <v>26235100</v>
+        <v>26320100</v>
       </c>
       <c r="I17" s="3">
-        <v>26443100</v>
+        <v>25076900</v>
       </c>
       <c r="J17" s="3">
+        <v>25275700</v>
+      </c>
+      <c r="K17" s="3">
         <v>25718600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1392600</v>
+        <v>1462700</v>
       </c>
       <c r="E18" s="3">
-        <v>1290100</v>
+        <v>1306200</v>
       </c>
       <c r="F18" s="3">
-        <v>1293800</v>
+        <v>1233200</v>
       </c>
       <c r="G18" s="3">
-        <v>494400</v>
+        <v>1236700</v>
       </c>
       <c r="H18" s="3">
-        <v>550900</v>
+        <v>472600</v>
       </c>
       <c r="I18" s="3">
-        <v>834900</v>
+        <v>526500</v>
       </c>
       <c r="J18" s="3">
+        <v>798100</v>
+      </c>
+      <c r="K18" s="3">
         <v>671400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -987,143 +1054,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-115200</v>
+        <v>-142600</v>
       </c>
       <c r="E20" s="3">
-        <v>-73200</v>
+        <v>-108700</v>
       </c>
       <c r="F20" s="3">
-        <v>-19000</v>
+        <v>-70000</v>
       </c>
       <c r="G20" s="3">
-        <v>740900</v>
+        <v>-18200</v>
       </c>
       <c r="H20" s="3">
-        <v>308600</v>
+        <v>708200</v>
       </c>
       <c r="I20" s="3">
-        <v>199100</v>
+        <v>295000</v>
       </c>
       <c r="J20" s="3">
+        <v>190300</v>
+      </c>
+      <c r="K20" s="3">
         <v>81100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3058200</v>
+        <v>2894000</v>
       </c>
       <c r="E21" s="3">
-        <v>3093100</v>
+        <v>2863700</v>
       </c>
       <c r="F21" s="3">
-        <v>2993300</v>
+        <v>2959600</v>
       </c>
       <c r="G21" s="3">
-        <v>3284200</v>
+        <v>2864000</v>
       </c>
       <c r="H21" s="3">
-        <v>2657600</v>
+        <v>3142600</v>
       </c>
       <c r="I21" s="3">
-        <v>2764000</v>
+        <v>2543200</v>
       </c>
       <c r="J21" s="3">
+        <v>2644800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2650800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>419500</v>
+        <v>357500</v>
       </c>
       <c r="E22" s="3">
-        <v>423700</v>
+        <v>399500</v>
       </c>
       <c r="F22" s="3">
-        <v>466200</v>
+        <v>405000</v>
       </c>
       <c r="G22" s="3">
-        <v>647400</v>
+        <v>445700</v>
       </c>
       <c r="H22" s="3">
-        <v>752300</v>
+        <v>618800</v>
       </c>
       <c r="I22" s="3">
-        <v>909600</v>
+        <v>719100</v>
       </c>
       <c r="J22" s="3">
+        <v>869400</v>
+      </c>
+      <c r="K22" s="3">
         <v>873500</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>857900</v>
+        <v>962700</v>
       </c>
       <c r="E23" s="3">
-        <v>793100</v>
+        <v>798000</v>
       </c>
       <c r="F23" s="3">
-        <v>808500</v>
+        <v>758100</v>
       </c>
       <c r="G23" s="3">
-        <v>588000</v>
+        <v>772800</v>
       </c>
       <c r="H23" s="3">
-        <v>107200</v>
+        <v>562000</v>
       </c>
       <c r="I23" s="3">
-        <v>124400</v>
+        <v>102400</v>
       </c>
       <c r="J23" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-121000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>267400</v>
+        <v>224600</v>
       </c>
       <c r="E24" s="3">
-        <v>224400</v>
+        <v>243700</v>
       </c>
       <c r="F24" s="3">
-        <v>230700</v>
+        <v>214500</v>
       </c>
       <c r="G24" s="3">
-        <v>193600</v>
+        <v>220500</v>
       </c>
       <c r="H24" s="3">
-        <v>140200</v>
+        <v>185000</v>
       </c>
       <c r="I24" s="3">
-        <v>62100</v>
+        <v>134000</v>
       </c>
       <c r="J24" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K24" s="3">
         <v>515400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,63 +1231,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>590500</v>
+        <v>738000</v>
       </c>
       <c r="E26" s="3">
-        <v>568700</v>
+        <v>554300</v>
       </c>
       <c r="F26" s="3">
-        <v>577900</v>
+        <v>543600</v>
       </c>
       <c r="G26" s="3">
-        <v>394400</v>
+        <v>552400</v>
       </c>
       <c r="H26" s="3">
-        <v>-33000</v>
+        <v>377000</v>
       </c>
       <c r="I26" s="3">
-        <v>62300</v>
+        <v>-31500</v>
       </c>
       <c r="J26" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-636400</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>455800</v>
+        <v>475200</v>
       </c>
       <c r="E27" s="3">
-        <v>399200</v>
+        <v>349400</v>
       </c>
       <c r="F27" s="3">
-        <v>429800</v>
+        <v>381600</v>
       </c>
       <c r="G27" s="3">
-        <v>229700</v>
+        <v>410900</v>
       </c>
       <c r="H27" s="3">
-        <v>-239500</v>
+        <v>219600</v>
       </c>
       <c r="I27" s="3">
-        <v>-32600</v>
+        <v>-228900</v>
       </c>
       <c r="J27" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1256900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,36 +1321,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>15600</v>
+        <v>-56800</v>
       </c>
       <c r="E29" s="3">
-        <v>-30300</v>
+        <v>20800</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-28900</v>
       </c>
       <c r="G29" s="3">
-        <v>-25700</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>39900</v>
+        <v>-24600</v>
       </c>
       <c r="I29" s="3">
-        <v>506900</v>
+        <v>38100</v>
       </c>
       <c r="J29" s="3">
+        <v>484500</v>
+      </c>
+      <c r="K29" s="3">
         <v>684000</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,9 +1381,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,63 +1411,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>115200</v>
+        <v>142600</v>
       </c>
       <c r="E32" s="3">
-        <v>73200</v>
+        <v>108700</v>
       </c>
       <c r="F32" s="3">
-        <v>19000</v>
+        <v>70000</v>
       </c>
       <c r="G32" s="3">
-        <v>-740900</v>
+        <v>18200</v>
       </c>
       <c r="H32" s="3">
-        <v>-308600</v>
+        <v>-708200</v>
       </c>
       <c r="I32" s="3">
-        <v>-199100</v>
+        <v>-295000</v>
       </c>
       <c r="J32" s="3">
+        <v>-190300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-81100</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>471400</v>
+        <v>418400</v>
       </c>
       <c r="E33" s="3">
-        <v>368900</v>
+        <v>370100</v>
       </c>
       <c r="F33" s="3">
-        <v>429800</v>
+        <v>352600</v>
       </c>
       <c r="G33" s="3">
-        <v>204000</v>
+        <v>410900</v>
       </c>
       <c r="H33" s="3">
-        <v>-199500</v>
+        <v>195000</v>
       </c>
       <c r="I33" s="3">
-        <v>474200</v>
+        <v>-190700</v>
       </c>
       <c r="J33" s="3">
+        <v>453300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-572900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,68 +1501,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>471400</v>
+        <v>418400</v>
       </c>
       <c r="E35" s="3">
-        <v>368900</v>
+        <v>370100</v>
       </c>
       <c r="F35" s="3">
-        <v>429800</v>
+        <v>352600</v>
       </c>
       <c r="G35" s="3">
-        <v>204000</v>
+        <v>410900</v>
       </c>
       <c r="H35" s="3">
-        <v>-199500</v>
+        <v>195000</v>
       </c>
       <c r="I35" s="3">
-        <v>474200</v>
+        <v>-190700</v>
       </c>
       <c r="J35" s="3">
+        <v>453300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-572900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1464,8 +1583,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1477,251 +1597,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7352600</v>
+        <v>5112300</v>
       </c>
       <c r="E41" s="3">
-        <v>6481100</v>
+        <v>7028000</v>
       </c>
       <c r="F41" s="3">
-        <v>4902200</v>
+        <v>6195000</v>
       </c>
       <c r="G41" s="3">
-        <v>3695900</v>
+        <v>4685800</v>
       </c>
       <c r="H41" s="3">
-        <v>5026700</v>
+        <v>3532700</v>
       </c>
       <c r="I41" s="3">
-        <v>11175600</v>
+        <v>4804800</v>
       </c>
       <c r="J41" s="3">
+        <v>10682200</v>
+      </c>
+      <c r="K41" s="3">
         <v>11278200</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>706500</v>
+        <v>596300</v>
       </c>
       <c r="E42" s="3">
-        <v>500400</v>
+        <v>675300</v>
       </c>
       <c r="F42" s="3">
-        <v>443700</v>
+        <v>478300</v>
       </c>
       <c r="G42" s="3">
-        <v>387700</v>
+        <v>424100</v>
       </c>
       <c r="H42" s="3">
-        <v>867200</v>
+        <v>370600</v>
       </c>
       <c r="I42" s="3">
-        <v>1986100</v>
+        <v>828900</v>
       </c>
       <c r="J42" s="3">
+        <v>1898400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1356800</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19975400</v>
+        <v>10116200</v>
       </c>
       <c r="E43" s="3">
-        <v>10195700</v>
+        <v>9525100</v>
       </c>
       <c r="F43" s="3">
-        <v>10326200</v>
+        <v>9745600</v>
       </c>
       <c r="G43" s="3">
-        <v>10153900</v>
+        <v>9870400</v>
       </c>
       <c r="H43" s="3">
-        <v>8366400</v>
+        <v>9705700</v>
       </c>
       <c r="I43" s="3">
-        <v>12552300</v>
+        <v>7997100</v>
       </c>
       <c r="J43" s="3">
+        <v>11998100</v>
+      </c>
+      <c r="K43" s="3">
         <v>12002300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1694000</v>
+        <v>917800</v>
       </c>
       <c r="E44" s="3">
-        <v>844700</v>
+        <v>809600</v>
       </c>
       <c r="F44" s="3">
-        <v>889400</v>
+        <v>807400</v>
       </c>
       <c r="G44" s="3">
-        <v>856800</v>
+        <v>850100</v>
       </c>
       <c r="H44" s="3">
-        <v>520200</v>
+        <v>818900</v>
       </c>
       <c r="I44" s="3">
-        <v>721800</v>
+        <v>497300</v>
       </c>
       <c r="J44" s="3">
+        <v>689900</v>
+      </c>
+      <c r="K44" s="3">
         <v>780000</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>654000</v>
+        <v>461100</v>
       </c>
       <c r="E45" s="3">
-        <v>155200</v>
+        <v>625200</v>
       </c>
       <c r="F45" s="3">
-        <v>291800</v>
+        <v>148300</v>
       </c>
       <c r="G45" s="3">
-        <v>524200</v>
+        <v>278900</v>
       </c>
       <c r="H45" s="3">
-        <v>4776100</v>
+        <v>501100</v>
       </c>
       <c r="I45" s="3">
-        <v>1788200</v>
+        <v>4565300</v>
       </c>
       <c r="J45" s="3">
+        <v>1709200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1017200</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19525300</v>
+        <v>17203800</v>
       </c>
       <c r="E46" s="3">
-        <v>18177000</v>
+        <v>18663300</v>
       </c>
       <c r="F46" s="3">
-        <v>16853300</v>
+        <v>17374600</v>
       </c>
       <c r="G46" s="3">
-        <v>15618500</v>
+        <v>16109300</v>
       </c>
       <c r="H46" s="3">
-        <v>19556700</v>
+        <v>14929000</v>
       </c>
       <c r="I46" s="3">
-        <v>20146900</v>
+        <v>18693400</v>
       </c>
       <c r="J46" s="3">
+        <v>19257500</v>
+      </c>
+      <c r="K46" s="3">
         <v>18992400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4636400</v>
+        <v>4096900</v>
       </c>
       <c r="E47" s="3">
-        <v>5157400</v>
+        <v>4431700</v>
       </c>
       <c r="F47" s="3">
-        <v>6060500</v>
+        <v>4929700</v>
       </c>
       <c r="G47" s="3">
-        <v>6223500</v>
+        <v>5792900</v>
       </c>
       <c r="H47" s="3">
-        <v>8828000</v>
+        <v>5948800</v>
       </c>
       <c r="I47" s="3">
-        <v>10195400</v>
+        <v>8438300</v>
       </c>
       <c r="J47" s="3">
+        <v>9745300</v>
+      </c>
+      <c r="K47" s="3">
         <v>10899900</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17124500</v>
+        <v>8815300</v>
       </c>
       <c r="E48" s="3">
-        <v>8424700</v>
+        <v>16368500</v>
       </c>
       <c r="F48" s="3">
-        <v>16011500</v>
+        <v>8052700</v>
       </c>
       <c r="G48" s="3">
-        <v>15582300</v>
+        <v>15304600</v>
       </c>
       <c r="H48" s="3">
-        <v>9780200</v>
+        <v>14894400</v>
       </c>
       <c r="I48" s="3">
-        <v>13550700</v>
+        <v>9348400</v>
       </c>
       <c r="J48" s="3">
+        <v>12952500</v>
+      </c>
+      <c r="K48" s="3">
         <v>17590400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15122700</v>
+        <v>10873500</v>
       </c>
       <c r="E49" s="3">
-        <v>11313800</v>
+        <v>10555800</v>
       </c>
       <c r="F49" s="3">
-        <v>11100600</v>
+        <v>10814300</v>
       </c>
       <c r="G49" s="3">
-        <v>12900800</v>
+        <v>10610500</v>
       </c>
       <c r="H49" s="3">
-        <v>7878000</v>
+        <v>12331200</v>
       </c>
       <c r="I49" s="3">
-        <v>20738600</v>
+        <v>7530200</v>
       </c>
       <c r="J49" s="3">
+        <v>19823100</v>
+      </c>
+      <c r="K49" s="3">
         <v>23166500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,9 +1894,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,36 +1924,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1164700</v>
+        <v>1189200</v>
       </c>
       <c r="E52" s="3">
-        <v>1472300</v>
+        <v>1113200</v>
       </c>
       <c r="F52" s="3">
-        <v>1532100</v>
+        <v>1407300</v>
       </c>
       <c r="G52" s="3">
-        <v>1454600</v>
+        <v>1464400</v>
       </c>
       <c r="H52" s="3">
-        <v>1341400</v>
+        <v>1390400</v>
       </c>
       <c r="I52" s="3">
-        <v>4635800</v>
+        <v>1282200</v>
       </c>
       <c r="J52" s="3">
+        <v>4431200</v>
+      </c>
+      <c r="K52" s="3">
         <v>8097300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,36 +1984,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44931900</v>
+        <v>42178700</v>
       </c>
       <c r="E54" s="3">
-        <v>44545200</v>
+        <v>42948300</v>
       </c>
       <c r="F54" s="3">
-        <v>43552200</v>
+        <v>42578600</v>
       </c>
       <c r="G54" s="3">
-        <v>40760000</v>
+        <v>41629500</v>
       </c>
       <c r="H54" s="3">
-        <v>42500700</v>
+        <v>38960500</v>
       </c>
       <c r="I54" s="3">
-        <v>45164300</v>
+        <v>40624500</v>
       </c>
       <c r="J54" s="3">
+        <v>43170500</v>
+      </c>
+      <c r="K54" s="3">
         <v>48205200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1868,8 +2031,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,170 +2045,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11876600</v>
+        <v>12302500</v>
       </c>
       <c r="E57" s="3">
-        <v>11972700</v>
+        <v>11352300</v>
       </c>
       <c r="F57" s="3">
-        <v>11821000</v>
+        <v>11444200</v>
       </c>
       <c r="G57" s="3">
-        <v>11359300</v>
+        <v>11299100</v>
       </c>
       <c r="H57" s="3">
-        <v>9636600</v>
+        <v>10857800</v>
       </c>
       <c r="I57" s="3">
-        <v>11224900</v>
+        <v>9211200</v>
       </c>
       <c r="J57" s="3">
+        <v>10729400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11618100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5653000</v>
+        <v>5428400</v>
       </c>
       <c r="E58" s="3">
-        <v>5876700</v>
+        <v>5403400</v>
       </c>
       <c r="F58" s="3">
-        <v>5069300</v>
+        <v>5617200</v>
       </c>
       <c r="G58" s="3">
-        <v>3779100</v>
+        <v>4845500</v>
       </c>
       <c r="H58" s="3">
-        <v>3722900</v>
+        <v>3612200</v>
       </c>
       <c r="I58" s="3">
-        <v>4529500</v>
+        <v>3558500</v>
       </c>
       <c r="J58" s="3">
+        <v>4329500</v>
+      </c>
+      <c r="K58" s="3">
         <v>9491400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1117700</v>
+        <v>842300</v>
       </c>
       <c r="E59" s="3">
-        <v>935800</v>
+        <v>1068400</v>
       </c>
       <c r="F59" s="3">
-        <v>922400</v>
+        <v>894500</v>
       </c>
       <c r="G59" s="3">
-        <v>959200</v>
+        <v>881700</v>
       </c>
       <c r="H59" s="3">
-        <v>3263100</v>
+        <v>916900</v>
       </c>
       <c r="I59" s="3">
-        <v>9403900</v>
+        <v>3119000</v>
       </c>
       <c r="J59" s="3">
+        <v>8988700</v>
+      </c>
+      <c r="K59" s="3">
         <v>9760200</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18647300</v>
+        <v>18573200</v>
       </c>
       <c r="E60" s="3">
-        <v>18785200</v>
+        <v>17824000</v>
       </c>
       <c r="F60" s="3">
-        <v>17812700</v>
+        <v>17955900</v>
       </c>
       <c r="G60" s="3">
-        <v>16097600</v>
+        <v>17026300</v>
       </c>
       <c r="H60" s="3">
-        <v>16622600</v>
+        <v>15387000</v>
       </c>
       <c r="I60" s="3">
-        <v>17440200</v>
+        <v>15888700</v>
       </c>
       <c r="J60" s="3">
+        <v>16670300</v>
+      </c>
+      <c r="K60" s="3">
         <v>17487400</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11101200</v>
+        <v>10833400</v>
       </c>
       <c r="E61" s="3">
-        <v>9794300</v>
+        <v>10611100</v>
       </c>
       <c r="F61" s="3">
-        <v>9416700</v>
+        <v>9361900</v>
       </c>
       <c r="G61" s="3">
-        <v>9771400</v>
+        <v>9000900</v>
       </c>
       <c r="H61" s="3">
-        <v>11420600</v>
+        <v>9340000</v>
       </c>
       <c r="I61" s="3">
-        <v>14239800</v>
+        <v>10916400</v>
       </c>
       <c r="J61" s="3">
+        <v>13611200</v>
+      </c>
+      <c r="K61" s="3">
         <v>16683700</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5048900</v>
+        <v>4756300</v>
       </c>
       <c r="E62" s="3">
-        <v>5546400</v>
+        <v>4826000</v>
       </c>
       <c r="F62" s="3">
-        <v>5605600</v>
+        <v>5301500</v>
       </c>
       <c r="G62" s="3">
-        <v>3763900</v>
+        <v>5358200</v>
       </c>
       <c r="H62" s="3">
-        <v>3119200</v>
+        <v>3597800</v>
       </c>
       <c r="I62" s="3">
-        <v>5966100</v>
+        <v>2981500</v>
       </c>
       <c r="J62" s="3">
+        <v>5702700</v>
+      </c>
+      <c r="K62" s="3">
         <v>6447500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,9 +2252,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,9 +2282,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,36 +2312,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36151600</v>
+        <v>35463200</v>
       </c>
       <c r="E66" s="3">
-        <v>35449100</v>
+        <v>34555600</v>
       </c>
       <c r="F66" s="3">
-        <v>34161300</v>
+        <v>33884100</v>
       </c>
       <c r="G66" s="3">
-        <v>31003000</v>
+        <v>32653200</v>
       </c>
       <c r="H66" s="3">
-        <v>32890400</v>
+        <v>29634300</v>
       </c>
       <c r="I66" s="3">
-        <v>36823000</v>
+        <v>31438400</v>
       </c>
       <c r="J66" s="3">
+        <v>35197400</v>
+      </c>
+      <c r="K66" s="3">
         <v>39979700</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,8 +2359,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,9 +2386,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,9 +2416,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2244,9 +2446,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,36 +2476,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3792700</v>
+        <v>-3851800</v>
       </c>
       <c r="E72" s="3">
-        <v>-3796800</v>
+        <v>-3625300</v>
       </c>
       <c r="F72" s="3">
-        <v>-3722200</v>
+        <v>-3629200</v>
       </c>
       <c r="G72" s="3">
-        <v>-3314500</v>
+        <v>-3557800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4096900</v>
+        <v>-3168200</v>
       </c>
       <c r="I72" s="3">
-        <v>-8686000</v>
+        <v>-3916100</v>
       </c>
       <c r="J72" s="3">
+        <v>-8302500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-12094900</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,9 +2536,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,9 +2566,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,36 +2596,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8780300</v>
+        <v>6715600</v>
       </c>
       <c r="E76" s="3">
-        <v>9096100</v>
+        <v>8392700</v>
       </c>
       <c r="F76" s="3">
-        <v>9390900</v>
+        <v>8694500</v>
       </c>
       <c r="G76" s="3">
-        <v>9756900</v>
+        <v>8976400</v>
       </c>
       <c r="H76" s="3">
-        <v>9610300</v>
+        <v>9326200</v>
       </c>
       <c r="I76" s="3">
-        <v>8341300</v>
+        <v>9186100</v>
       </c>
       <c r="J76" s="3">
+        <v>7973100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8225500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,68 +2656,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>471400</v>
+        <v>418400</v>
       </c>
       <c r="E81" s="3">
-        <v>368900</v>
+        <v>370100</v>
       </c>
       <c r="F81" s="3">
-        <v>429800</v>
+        <v>352600</v>
       </c>
       <c r="G81" s="3">
-        <v>204000</v>
+        <v>410900</v>
       </c>
       <c r="H81" s="3">
-        <v>-199500</v>
+        <v>195000</v>
       </c>
       <c r="I81" s="3">
-        <v>474200</v>
+        <v>-190700</v>
       </c>
       <c r="J81" s="3">
+        <v>453300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-572900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,35 +2738,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1779500</v>
+        <v>1570100</v>
       </c>
       <c r="E83" s="3">
-        <v>1874900</v>
+        <v>1662200</v>
       </c>
       <c r="F83" s="3">
-        <v>1717400</v>
+        <v>1792200</v>
       </c>
       <c r="G83" s="3">
-        <v>2047500</v>
+        <v>1641600</v>
       </c>
       <c r="H83" s="3">
-        <v>1796900</v>
+        <v>1957100</v>
       </c>
       <c r="I83" s="3">
-        <v>1728800</v>
+        <v>1717500</v>
       </c>
       <c r="J83" s="3">
+        <v>1652500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1897000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,9 +2795,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,9 +2825,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,9 +2855,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,9 +2885,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,36 +2915,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2877100</v>
+        <v>2684200</v>
       </c>
       <c r="E89" s="3">
-        <v>3000100</v>
+        <v>2750100</v>
       </c>
       <c r="F89" s="3">
-        <v>2892000</v>
+        <v>2867700</v>
       </c>
       <c r="G89" s="3">
-        <v>2456800</v>
+        <v>2764400</v>
       </c>
       <c r="H89" s="3">
-        <v>2069500</v>
+        <v>2348300</v>
       </c>
       <c r="I89" s="3">
-        <v>2322100</v>
+        <v>1978200</v>
       </c>
       <c r="J89" s="3">
+        <v>2219600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2210000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,35 +2962,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1755400</v>
+        <v>-1672200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1588800</v>
+        <v>-1677900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1581500</v>
+        <v>-1518600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1613400</v>
+        <v>-1511700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1440100</v>
+        <v>-1542200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1972800</v>
+        <v>-1376600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1885700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1839700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,9 +3019,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,36 +3049,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1668900</v>
+        <v>-1770100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1560900</v>
+        <v>-1595200</v>
       </c>
       <c r="F94" s="3">
-        <v>-919800</v>
+        <v>-1492000</v>
       </c>
       <c r="G94" s="3">
-        <v>-702100</v>
+        <v>-879200</v>
       </c>
       <c r="H94" s="3">
-        <v>-389200</v>
+        <v>-671100</v>
       </c>
       <c r="I94" s="3">
-        <v>1218900</v>
+        <v>-372100</v>
       </c>
       <c r="J94" s="3">
+        <v>1165100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-981400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2829,35 +3096,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-681400</v>
+        <v>-664700</v>
       </c>
       <c r="E96" s="3">
-        <v>-612400</v>
+        <v>-651300</v>
       </c>
       <c r="F96" s="3">
-        <v>-601000</v>
+        <v>-585300</v>
       </c>
       <c r="G96" s="3">
-        <v>-305700</v>
+        <v>-574500</v>
       </c>
       <c r="H96" s="3">
-        <v>-224500</v>
+        <v>-292200</v>
       </c>
       <c r="I96" s="3">
-        <v>-509800</v>
+        <v>-214600</v>
       </c>
       <c r="J96" s="3">
+        <v>-487300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-473000</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,9 +3153,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,9 +3183,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,88 +3213,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-262300</v>
+        <v>-2819900</v>
       </c>
       <c r="E100" s="3">
-        <v>227000</v>
+        <v>-250900</v>
       </c>
       <c r="F100" s="3">
-        <v>-892000</v>
+        <v>217000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3041900</v>
+        <v>-852600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2620300</v>
+        <v>-2907600</v>
       </c>
       <c r="I100" s="3">
-        <v>-3270800</v>
+        <v>-2504600</v>
       </c>
       <c r="J100" s="3">
+        <v>-3126400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-952500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-29500</v>
+        <v>-17600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-28400</v>
       </c>
       <c r="F101" s="3">
-        <v>6100</v>
+        <v>-2900</v>
       </c>
       <c r="G101" s="3">
-        <v>-38100</v>
+        <v>5800</v>
       </c>
       <c r="H101" s="3">
-        <v>106700</v>
+        <v>-36500</v>
       </c>
       <c r="I101" s="3">
-        <v>-140600</v>
+        <v>102000</v>
       </c>
       <c r="J101" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>916400</v>
+        <v>-1923300</v>
       </c>
       <c r="E102" s="3">
-        <v>1663200</v>
+        <v>875600</v>
       </c>
       <c r="F102" s="3">
-        <v>1086400</v>
+        <v>1589700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1325300</v>
+        <v>1038400</v>
       </c>
       <c r="H102" s="3">
-        <v>-833300</v>
+        <v>-1266800</v>
       </c>
       <c r="I102" s="3">
-        <v>129600</v>
+        <v>-796500</v>
       </c>
       <c r="J102" s="3">
+        <v>123900</v>
+      </c>
+      <c r="K102" s="3">
         <v>257800</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/VEOEY_YR_FIN.xlsx
+++ b/Financials/Yearly/VEOEY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5731291-8C5C-41AB-8DE8-8BCC408E56E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="VEOEY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,35 +654,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,97 +712,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29072000</v>
+        <v>28450400</v>
       </c>
       <c r="E8" s="3">
-        <v>27846000</v>
+        <v>27250600</v>
       </c>
       <c r="F8" s="3">
-        <v>27137600</v>
+        <v>26557300</v>
       </c>
       <c r="G8" s="3">
-        <v>28010300</v>
+        <v>27411400</v>
       </c>
       <c r="H8" s="3">
-        <v>26792700</v>
+        <v>26219800</v>
       </c>
       <c r="I8" s="3">
-        <v>25603500</v>
+        <v>25056000</v>
       </c>
       <c r="J8" s="3">
-        <v>26073800</v>
+        <v>25516300</v>
       </c>
       <c r="K8" s="3">
         <v>26390100</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24001500</v>
+        <v>23488300</v>
       </c>
       <c r="E9" s="3">
-        <v>22808400</v>
+        <v>22320700</v>
       </c>
       <c r="F9" s="3">
-        <v>22121300</v>
+        <v>21648300</v>
       </c>
       <c r="G9" s="3">
-        <v>22926000</v>
+        <v>22435800</v>
       </c>
       <c r="H9" s="3">
-        <v>44946600</v>
+        <v>43985600</v>
       </c>
       <c r="I9" s="3">
-        <v>43091100</v>
+        <v>42169800</v>
       </c>
       <c r="J9" s="3">
-        <v>21949500</v>
+        <v>21480200</v>
       </c>
       <c r="K9" s="3">
         <v>22163100</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5070500</v>
+        <v>4962100</v>
       </c>
       <c r="E10" s="3">
-        <v>5037600</v>
+        <v>4929900</v>
       </c>
       <c r="F10" s="3">
-        <v>5016300</v>
+        <v>4909000</v>
       </c>
       <c r="G10" s="3">
-        <v>5084300</v>
+        <v>4975600</v>
       </c>
       <c r="H10" s="3">
-        <v>-18153900</v>
+        <v>-17765700</v>
       </c>
       <c r="I10" s="3">
-        <v>-17487700</v>
+        <v>-17113800</v>
       </c>
       <c r="J10" s="3">
-        <v>4124300</v>
+        <v>4036100</v>
       </c>
       <c r="K10" s="3">
         <v>4227000</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,7 +816,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,10 +833,10 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>87600</v>
+        <v>85800</v>
       </c>
       <c r="I12" s="3">
-        <v>91900</v>
+        <v>89900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -881,7 +846,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,27 +876,27 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>448100</v>
+        <v>438500</v>
       </c>
       <c r="E14" s="3">
-        <v>484100</v>
+        <v>473800</v>
       </c>
       <c r="F14" s="3">
-        <v>509000</v>
+        <v>498200</v>
       </c>
       <c r="G14" s="3">
-        <v>423400</v>
+        <v>414400</v>
       </c>
       <c r="H14" s="3">
-        <v>785400</v>
+        <v>768600</v>
       </c>
       <c r="I14" s="3">
-        <v>135300</v>
+        <v>132400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -941,7 +906,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -971,7 +936,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -982,67 +947,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27609300</v>
+        <v>27018900</v>
       </c>
       <c r="E17" s="3">
-        <v>26539800</v>
+        <v>25972300</v>
       </c>
       <c r="F17" s="3">
-        <v>25904400</v>
+        <v>25350500</v>
       </c>
       <c r="G17" s="3">
-        <v>26773600</v>
+        <v>26201100</v>
       </c>
       <c r="H17" s="3">
-        <v>26320100</v>
+        <v>25757300</v>
       </c>
       <c r="I17" s="3">
-        <v>25076900</v>
+        <v>24540700</v>
       </c>
       <c r="J17" s="3">
-        <v>25275700</v>
+        <v>24735300</v>
       </c>
       <c r="K17" s="3">
         <v>25718600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1462700</v>
+        <v>1431500</v>
       </c>
       <c r="E18" s="3">
-        <v>1306200</v>
+        <v>1278300</v>
       </c>
       <c r="F18" s="3">
-        <v>1233200</v>
+        <v>1206800</v>
       </c>
       <c r="G18" s="3">
-        <v>1236700</v>
+        <v>1210200</v>
       </c>
       <c r="H18" s="3">
-        <v>472600</v>
+        <v>462500</v>
       </c>
       <c r="I18" s="3">
-        <v>526500</v>
+        <v>515300</v>
       </c>
       <c r="J18" s="3">
-        <v>798100</v>
+        <v>781000</v>
       </c>
       <c r="K18" s="3">
         <v>671400</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1056,157 +1021,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-142600</v>
+        <v>-139600</v>
       </c>
       <c r="E20" s="3">
-        <v>-108700</v>
+        <v>-106400</v>
       </c>
       <c r="F20" s="3">
-        <v>-70000</v>
+        <v>-68500</v>
       </c>
       <c r="G20" s="3">
-        <v>-18200</v>
+        <v>-17800</v>
       </c>
       <c r="H20" s="3">
-        <v>708200</v>
+        <v>693100</v>
       </c>
       <c r="I20" s="3">
-        <v>295000</v>
+        <v>288700</v>
       </c>
       <c r="J20" s="3">
-        <v>190300</v>
+        <v>186200</v>
       </c>
       <c r="K20" s="3">
         <v>81100</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2894000</v>
+        <v>2830800</v>
       </c>
       <c r="E21" s="3">
-        <v>2863700</v>
+        <v>2801100</v>
       </c>
       <c r="F21" s="3">
-        <v>2959600</v>
+        <v>2894800</v>
       </c>
       <c r="G21" s="3">
-        <v>2864000</v>
+        <v>2801400</v>
       </c>
       <c r="H21" s="3">
-        <v>3142600</v>
+        <v>3073700</v>
       </c>
       <c r="I21" s="3">
-        <v>2543200</v>
+        <v>2487400</v>
       </c>
       <c r="J21" s="3">
-        <v>2644800</v>
+        <v>2586900</v>
       </c>
       <c r="K21" s="3">
         <v>2650800</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>357500</v>
+        <v>349800</v>
       </c>
       <c r="E22" s="3">
-        <v>399500</v>
+        <v>391000</v>
       </c>
       <c r="F22" s="3">
-        <v>405000</v>
+        <v>396400</v>
       </c>
       <c r="G22" s="3">
-        <v>445700</v>
+        <v>436100</v>
       </c>
       <c r="H22" s="3">
-        <v>618800</v>
+        <v>605500</v>
       </c>
       <c r="I22" s="3">
-        <v>719100</v>
+        <v>703700</v>
       </c>
       <c r="J22" s="3">
-        <v>869400</v>
+        <v>850800</v>
       </c>
       <c r="K22" s="3">
         <v>873500</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>962700</v>
+        <v>942100</v>
       </c>
       <c r="E23" s="3">
-        <v>798000</v>
+        <v>780900</v>
       </c>
       <c r="F23" s="3">
-        <v>758100</v>
+        <v>741900</v>
       </c>
       <c r="G23" s="3">
-        <v>772800</v>
+        <v>756300</v>
       </c>
       <c r="H23" s="3">
-        <v>562000</v>
+        <v>550000</v>
       </c>
       <c r="I23" s="3">
-        <v>102400</v>
+        <v>100200</v>
       </c>
       <c r="J23" s="3">
-        <v>118900</v>
+        <v>116400</v>
       </c>
       <c r="K23" s="3">
         <v>-121000</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>224600</v>
+        <v>219800</v>
       </c>
       <c r="E24" s="3">
-        <v>243700</v>
+        <v>238500</v>
       </c>
       <c r="F24" s="3">
-        <v>214500</v>
+        <v>209900</v>
       </c>
       <c r="G24" s="3">
-        <v>220500</v>
+        <v>215800</v>
       </c>
       <c r="H24" s="3">
-        <v>185000</v>
+        <v>181100</v>
       </c>
       <c r="I24" s="3">
-        <v>134000</v>
+        <v>131100</v>
       </c>
       <c r="J24" s="3">
-        <v>59400</v>
+        <v>58100</v>
       </c>
       <c r="K24" s="3">
         <v>515400</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,67 +1201,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>738000</v>
+        <v>722300</v>
       </c>
       <c r="E26" s="3">
-        <v>554300</v>
+        <v>542400</v>
       </c>
       <c r="F26" s="3">
-        <v>543600</v>
+        <v>532000</v>
       </c>
       <c r="G26" s="3">
-        <v>552400</v>
+        <v>540500</v>
       </c>
       <c r="H26" s="3">
-        <v>377000</v>
+        <v>368900</v>
       </c>
       <c r="I26" s="3">
-        <v>-31500</v>
+        <v>-30900</v>
       </c>
       <c r="J26" s="3">
-        <v>59600</v>
+        <v>58300</v>
       </c>
       <c r="K26" s="3">
         <v>-636400</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>475200</v>
+        <v>465000</v>
       </c>
       <c r="E27" s="3">
-        <v>349400</v>
+        <v>341900</v>
       </c>
       <c r="F27" s="3">
-        <v>381600</v>
+        <v>373400</v>
       </c>
       <c r="G27" s="3">
-        <v>410900</v>
+        <v>402100</v>
       </c>
       <c r="H27" s="3">
-        <v>219600</v>
+        <v>214900</v>
       </c>
       <c r="I27" s="3">
-        <v>-228900</v>
+        <v>-224000</v>
       </c>
       <c r="J27" s="3">
-        <v>-31200</v>
+        <v>-30500</v>
       </c>
       <c r="K27" s="3">
         <v>-1256900</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,37 +1291,37 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-56800</v>
+        <v>-55600</v>
       </c>
       <c r="E29" s="3">
-        <v>20800</v>
+        <v>20300</v>
       </c>
       <c r="F29" s="3">
-        <v>-28900</v>
+        <v>-28300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-24600</v>
+        <v>-24000</v>
       </c>
       <c r="I29" s="3">
-        <v>38100</v>
+        <v>37300</v>
       </c>
       <c r="J29" s="3">
-        <v>484500</v>
+        <v>474100</v>
       </c>
       <c r="K29" s="3">
         <v>684000</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1351,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1416,67 +1381,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>142600</v>
+        <v>139600</v>
       </c>
       <c r="E32" s="3">
-        <v>108700</v>
+        <v>106400</v>
       </c>
       <c r="F32" s="3">
-        <v>70000</v>
+        <v>68500</v>
       </c>
       <c r="G32" s="3">
-        <v>18200</v>
+        <v>17800</v>
       </c>
       <c r="H32" s="3">
-        <v>-708200</v>
+        <v>-693100</v>
       </c>
       <c r="I32" s="3">
-        <v>-295000</v>
+        <v>-288700</v>
       </c>
       <c r="J32" s="3">
-        <v>-190300</v>
+        <v>-186200</v>
       </c>
       <c r="K32" s="3">
         <v>-81100</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>418400</v>
+        <v>409400</v>
       </c>
       <c r="E33" s="3">
-        <v>370100</v>
+        <v>362200</v>
       </c>
       <c r="F33" s="3">
-        <v>352600</v>
+        <v>345100</v>
       </c>
       <c r="G33" s="3">
-        <v>410900</v>
+        <v>402100</v>
       </c>
       <c r="H33" s="3">
-        <v>195000</v>
+        <v>190800</v>
       </c>
       <c r="I33" s="3">
-        <v>-190700</v>
+        <v>-186700</v>
       </c>
       <c r="J33" s="3">
-        <v>453300</v>
+        <v>443600</v>
       </c>
       <c r="K33" s="3">
         <v>-572900</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1506,42 +1471,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>418400</v>
+        <v>409400</v>
       </c>
       <c r="E35" s="3">
-        <v>370100</v>
+        <v>362200</v>
       </c>
       <c r="F35" s="3">
-        <v>352600</v>
+        <v>345100</v>
       </c>
       <c r="G35" s="3">
-        <v>410900</v>
+        <v>402100</v>
       </c>
       <c r="H35" s="3">
-        <v>195000</v>
+        <v>190800</v>
       </c>
       <c r="I35" s="3">
-        <v>-190700</v>
+        <v>-186700</v>
       </c>
       <c r="J35" s="3">
-        <v>453300</v>
+        <v>443600</v>
       </c>
       <c r="K35" s="3">
         <v>-572900</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1536,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1585,7 +1550,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1599,277 +1564,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5112300</v>
+        <v>5003000</v>
       </c>
       <c r="E41" s="3">
-        <v>7028000</v>
+        <v>6877800</v>
       </c>
       <c r="F41" s="3">
-        <v>6195000</v>
+        <v>6062500</v>
       </c>
       <c r="G41" s="3">
-        <v>4685800</v>
+        <v>4585600</v>
       </c>
       <c r="H41" s="3">
-        <v>3532700</v>
+        <v>3457200</v>
       </c>
       <c r="I41" s="3">
-        <v>4804800</v>
+        <v>4702100</v>
       </c>
       <c r="J41" s="3">
-        <v>10682200</v>
+        <v>10453800</v>
       </c>
       <c r="K41" s="3">
         <v>11278200</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>596300</v>
+        <v>583600</v>
       </c>
       <c r="E42" s="3">
-        <v>675300</v>
+        <v>660900</v>
       </c>
       <c r="F42" s="3">
-        <v>478300</v>
+        <v>468100</v>
       </c>
       <c r="G42" s="3">
-        <v>424100</v>
+        <v>415000</v>
       </c>
       <c r="H42" s="3">
-        <v>370600</v>
+        <v>362700</v>
       </c>
       <c r="I42" s="3">
-        <v>828900</v>
+        <v>811200</v>
       </c>
       <c r="J42" s="3">
-        <v>1898400</v>
+        <v>1857800</v>
       </c>
       <c r="K42" s="3">
         <v>1356800</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10116200</v>
+        <v>19792900</v>
       </c>
       <c r="E43" s="3">
-        <v>9525100</v>
+        <v>9321500</v>
       </c>
       <c r="F43" s="3">
-        <v>9745600</v>
+        <v>9537200</v>
       </c>
       <c r="G43" s="3">
-        <v>9870400</v>
+        <v>9659300</v>
       </c>
       <c r="H43" s="3">
-        <v>9705700</v>
+        <v>9498100</v>
       </c>
       <c r="I43" s="3">
-        <v>7997100</v>
+        <v>7826100</v>
       </c>
       <c r="J43" s="3">
-        <v>11998100</v>
+        <v>11741600</v>
       </c>
       <c r="K43" s="3">
         <v>12002300</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>917800</v>
+        <v>1796300</v>
       </c>
       <c r="E44" s="3">
-        <v>809600</v>
+        <v>792300</v>
       </c>
       <c r="F44" s="3">
-        <v>807400</v>
+        <v>790100</v>
       </c>
       <c r="G44" s="3">
-        <v>850100</v>
+        <v>832000</v>
       </c>
       <c r="H44" s="3">
-        <v>818900</v>
+        <v>801400</v>
       </c>
       <c r="I44" s="3">
-        <v>497300</v>
+        <v>486600</v>
       </c>
       <c r="J44" s="3">
-        <v>689900</v>
+        <v>675200</v>
       </c>
       <c r="K44" s="3">
         <v>780000</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>461100</v>
+        <v>451300</v>
       </c>
       <c r="E45" s="3">
-        <v>625200</v>
+        <v>611800</v>
       </c>
       <c r="F45" s="3">
-        <v>148300</v>
+        <v>145200</v>
       </c>
       <c r="G45" s="3">
-        <v>278900</v>
+        <v>273000</v>
       </c>
       <c r="H45" s="3">
-        <v>501100</v>
+        <v>490400</v>
       </c>
       <c r="I45" s="3">
-        <v>4565300</v>
+        <v>4467700</v>
       </c>
       <c r="J45" s="3">
-        <v>1709200</v>
+        <v>1672700</v>
       </c>
       <c r="K45" s="3">
         <v>1017200</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17203800</v>
+        <v>16829000</v>
       </c>
       <c r="E46" s="3">
-        <v>18663300</v>
+        <v>18264200</v>
       </c>
       <c r="F46" s="3">
-        <v>17374600</v>
+        <v>17003100</v>
       </c>
       <c r="G46" s="3">
-        <v>16109300</v>
+        <v>15764900</v>
       </c>
       <c r="H46" s="3">
-        <v>14929000</v>
+        <v>14609800</v>
       </c>
       <c r="I46" s="3">
-        <v>18693400</v>
+        <v>18293700</v>
       </c>
       <c r="J46" s="3">
-        <v>19257500</v>
+        <v>18845700</v>
       </c>
       <c r="K46" s="3">
         <v>18992400</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4096900</v>
+        <v>4002800</v>
       </c>
       <c r="E47" s="3">
-        <v>4431700</v>
+        <v>4337000</v>
       </c>
       <c r="F47" s="3">
-        <v>4929700</v>
+        <v>4824300</v>
       </c>
       <c r="G47" s="3">
-        <v>5792900</v>
+        <v>5669100</v>
       </c>
       <c r="H47" s="3">
-        <v>5948800</v>
+        <v>5821600</v>
       </c>
       <c r="I47" s="3">
-        <v>8438300</v>
+        <v>8257800</v>
       </c>
       <c r="J47" s="3">
-        <v>9745300</v>
+        <v>9536900</v>
       </c>
       <c r="K47" s="3">
         <v>10899900</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8815300</v>
+        <v>19034400</v>
       </c>
       <c r="E48" s="3">
-        <v>16368500</v>
+        <v>16018500</v>
       </c>
       <c r="F48" s="3">
-        <v>8052700</v>
+        <v>7880600</v>
       </c>
       <c r="G48" s="3">
-        <v>15304600</v>
+        <v>14977400</v>
       </c>
       <c r="H48" s="3">
-        <v>14894400</v>
+        <v>14576000</v>
       </c>
       <c r="I48" s="3">
-        <v>9348400</v>
+        <v>9148500</v>
       </c>
       <c r="J48" s="3">
-        <v>12952500</v>
+        <v>12675500</v>
       </c>
       <c r="K48" s="3">
         <v>17590400</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10873500</v>
+        <v>15628800</v>
       </c>
       <c r="E49" s="3">
-        <v>10555800</v>
+        <v>10330100</v>
       </c>
       <c r="F49" s="3">
-        <v>10814300</v>
+        <v>10583100</v>
       </c>
       <c r="G49" s="3">
-        <v>10610500</v>
+        <v>10383700</v>
       </c>
       <c r="H49" s="3">
-        <v>12331200</v>
+        <v>12067600</v>
       </c>
       <c r="I49" s="3">
-        <v>7530200</v>
+        <v>9674300</v>
       </c>
       <c r="J49" s="3">
-        <v>19823100</v>
+        <v>19399200</v>
       </c>
       <c r="K49" s="3">
         <v>23166500</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1899,7 +1864,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1929,37 +1894,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1189200</v>
+        <v>1196900</v>
       </c>
       <c r="E52" s="3">
-        <v>1113200</v>
+        <v>1089400</v>
       </c>
       <c r="F52" s="3">
-        <v>1407300</v>
+        <v>1377200</v>
       </c>
       <c r="G52" s="3">
-        <v>1464400</v>
+        <v>1433100</v>
       </c>
       <c r="H52" s="3">
-        <v>1390400</v>
+        <v>1360600</v>
       </c>
       <c r="I52" s="3">
-        <v>1282200</v>
+        <v>1254800</v>
       </c>
       <c r="J52" s="3">
-        <v>4431200</v>
+        <v>4336400</v>
       </c>
       <c r="K52" s="3">
         <v>8097300</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1989,37 +1954,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42178700</v>
+        <v>43077300</v>
       </c>
       <c r="E54" s="3">
-        <v>42948300</v>
+        <v>42030000</v>
       </c>
       <c r="F54" s="3">
-        <v>42578600</v>
+        <v>41668200</v>
       </c>
       <c r="G54" s="3">
-        <v>41629500</v>
+        <v>40739400</v>
       </c>
       <c r="H54" s="3">
-        <v>38960500</v>
+        <v>38127500</v>
       </c>
       <c r="I54" s="3">
-        <v>40624500</v>
+        <v>39755800</v>
       </c>
       <c r="J54" s="3">
-        <v>43170500</v>
+        <v>42247400</v>
       </c>
       <c r="K54" s="3">
         <v>48205200</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2033,7 +1998,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2047,187 +2012,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12302500</v>
+        <v>17253000</v>
       </c>
       <c r="E57" s="3">
-        <v>11352300</v>
+        <v>4632100</v>
       </c>
       <c r="F57" s="3">
-        <v>11444200</v>
+        <v>4751800</v>
       </c>
       <c r="G57" s="3">
-        <v>11299100</v>
+        <v>4771000</v>
       </c>
       <c r="H57" s="3">
-        <v>10857800</v>
+        <v>15280800</v>
       </c>
       <c r="I57" s="3">
-        <v>9211200</v>
+        <v>12523800</v>
       </c>
       <c r="J57" s="3">
-        <v>10729400</v>
+        <v>9905300</v>
       </c>
       <c r="K57" s="3">
         <v>11618100</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5428400</v>
+        <v>5280600</v>
       </c>
       <c r="E58" s="3">
-        <v>5403400</v>
+        <v>5287900</v>
       </c>
       <c r="F58" s="3">
-        <v>5617200</v>
+        <v>5497100</v>
       </c>
       <c r="G58" s="3">
-        <v>4845500</v>
+        <v>4741900</v>
       </c>
       <c r="H58" s="3">
-        <v>3612200</v>
+        <v>3535000</v>
       </c>
       <c r="I58" s="3">
-        <v>3558500</v>
+        <v>3482400</v>
       </c>
       <c r="J58" s="3">
-        <v>4329500</v>
+        <v>4237000</v>
       </c>
       <c r="K58" s="3">
         <v>9491400</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>842300</v>
+        <v>8116700</v>
       </c>
       <c r="E59" s="3">
-        <v>1068400</v>
+        <v>7522900</v>
       </c>
       <c r="F59" s="3">
-        <v>894500</v>
+        <v>7323000</v>
       </c>
       <c r="G59" s="3">
-        <v>881700</v>
+        <v>7149300</v>
       </c>
       <c r="H59" s="3">
-        <v>916900</v>
+        <v>6890200</v>
       </c>
       <c r="I59" s="3">
-        <v>3119000</v>
+        <v>8249800</v>
       </c>
       <c r="J59" s="3">
-        <v>8988700</v>
+        <v>14907000</v>
       </c>
       <c r="K59" s="3">
         <v>9760200</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18573200</v>
+        <v>18611000</v>
       </c>
       <c r="E60" s="3">
-        <v>17824000</v>
+        <v>17442900</v>
       </c>
       <c r="F60" s="3">
-        <v>17955900</v>
+        <v>17572000</v>
       </c>
       <c r="G60" s="3">
-        <v>17026300</v>
+        <v>16662300</v>
       </c>
       <c r="H60" s="3">
-        <v>15387000</v>
+        <v>15058000</v>
       </c>
       <c r="I60" s="3">
-        <v>15888700</v>
+        <v>15549000</v>
       </c>
       <c r="J60" s="3">
-        <v>16670300</v>
+        <v>16313900</v>
       </c>
       <c r="K60" s="3">
         <v>17487400</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10833400</v>
+        <v>12074700</v>
       </c>
       <c r="E61" s="3">
-        <v>10611100</v>
+        <v>10384200</v>
       </c>
       <c r="F61" s="3">
-        <v>9361900</v>
+        <v>9161700</v>
       </c>
       <c r="G61" s="3">
-        <v>9000900</v>
+        <v>8808500</v>
       </c>
       <c r="H61" s="3">
-        <v>9340000</v>
+        <v>9140300</v>
       </c>
       <c r="I61" s="3">
-        <v>10916400</v>
+        <v>10683000</v>
       </c>
       <c r="J61" s="3">
-        <v>13611200</v>
+        <v>13320200</v>
       </c>
       <c r="K61" s="3">
         <v>16683700</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4756300</v>
+        <v>4666000</v>
       </c>
       <c r="E62" s="3">
-        <v>4826000</v>
+        <v>4722800</v>
       </c>
       <c r="F62" s="3">
-        <v>5301500</v>
+        <v>5188200</v>
       </c>
       <c r="G62" s="3">
-        <v>5358200</v>
+        <v>5243600</v>
       </c>
       <c r="H62" s="3">
-        <v>3597800</v>
+        <v>3520800</v>
       </c>
       <c r="I62" s="3">
-        <v>2981500</v>
+        <v>2917700</v>
       </c>
       <c r="J62" s="3">
-        <v>5702700</v>
+        <v>5580800</v>
       </c>
       <c r="K62" s="3">
         <v>6447500</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2257,7 +2222,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2252,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2317,37 +2282,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35463200</v>
+        <v>36616500</v>
       </c>
       <c r="E66" s="3">
-        <v>34555600</v>
+        <v>33816800</v>
       </c>
       <c r="F66" s="3">
-        <v>33884100</v>
+        <v>33159600</v>
       </c>
       <c r="G66" s="3">
-        <v>32653200</v>
+        <v>31955000</v>
       </c>
       <c r="H66" s="3">
-        <v>29634300</v>
+        <v>29000700</v>
       </c>
       <c r="I66" s="3">
-        <v>31438400</v>
+        <v>30766200</v>
       </c>
       <c r="J66" s="3">
-        <v>35197400</v>
+        <v>34444800</v>
       </c>
       <c r="K66" s="3">
         <v>39979700</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2361,7 +2326,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2391,7 +2356,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2421,7 +2386,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2451,7 +2416,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2481,37 +2446,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3851800</v>
+        <v>-3881600</v>
       </c>
       <c r="E72" s="3">
-        <v>-3625300</v>
+        <v>-3547700</v>
       </c>
       <c r="F72" s="3">
-        <v>-3629200</v>
+        <v>-3551600</v>
       </c>
       <c r="G72" s="3">
-        <v>-3557800</v>
+        <v>-3481800</v>
       </c>
       <c r="H72" s="3">
-        <v>-3168200</v>
+        <v>-3100400</v>
       </c>
       <c r="I72" s="3">
-        <v>-3916100</v>
+        <v>-3832300</v>
       </c>
       <c r="J72" s="3">
-        <v>-8302500</v>
+        <v>-8125000</v>
       </c>
       <c r="K72" s="3">
         <v>-12094900</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2541,7 +2506,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2571,7 +2536,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2601,37 +2566,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6715600</v>
+        <v>6460700</v>
       </c>
       <c r="E76" s="3">
-        <v>8392700</v>
+        <v>8213300</v>
       </c>
       <c r="F76" s="3">
-        <v>8694500</v>
+        <v>8508600</v>
       </c>
       <c r="G76" s="3">
-        <v>8976400</v>
+        <v>8784400</v>
       </c>
       <c r="H76" s="3">
-        <v>9326200</v>
+        <v>9126800</v>
       </c>
       <c r="I76" s="3">
-        <v>9186100</v>
+        <v>8989700</v>
       </c>
       <c r="J76" s="3">
-        <v>7973100</v>
+        <v>7802600</v>
       </c>
       <c r="K76" s="3">
         <v>8225500</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2661,12 +2626,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2696,37 +2661,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>418400</v>
+        <v>409400</v>
       </c>
       <c r="E81" s="3">
-        <v>370100</v>
+        <v>362200</v>
       </c>
       <c r="F81" s="3">
-        <v>352600</v>
+        <v>345100</v>
       </c>
       <c r="G81" s="3">
-        <v>410900</v>
+        <v>402100</v>
       </c>
       <c r="H81" s="3">
-        <v>195000</v>
+        <v>190800</v>
       </c>
       <c r="I81" s="3">
-        <v>-190700</v>
+        <v>-186700</v>
       </c>
       <c r="J81" s="3">
-        <v>453300</v>
+        <v>443600</v>
       </c>
       <c r="K81" s="3">
         <v>-572900</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2740,37 +2705,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1570100</v>
+        <v>1536500</v>
       </c>
       <c r="E83" s="3">
-        <v>1662200</v>
+        <v>1626700</v>
       </c>
       <c r="F83" s="3">
-        <v>1792200</v>
+        <v>1753800</v>
       </c>
       <c r="G83" s="3">
-        <v>1641600</v>
+        <v>1606500</v>
       </c>
       <c r="H83" s="3">
-        <v>1957100</v>
+        <v>1915200</v>
       </c>
       <c r="I83" s="3">
-        <v>1717500</v>
+        <v>1680800</v>
       </c>
       <c r="J83" s="3">
-        <v>1652500</v>
+        <v>1617100</v>
       </c>
       <c r="K83" s="3">
         <v>1897000</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2800,7 +2765,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2830,7 +2795,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2860,7 +2825,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2920,37 +2885,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2684200</v>
+        <v>2626900</v>
       </c>
       <c r="E89" s="3">
-        <v>2750100</v>
+        <v>2691300</v>
       </c>
       <c r="F89" s="3">
-        <v>2867700</v>
+        <v>2806400</v>
       </c>
       <c r="G89" s="3">
-        <v>2764400</v>
+        <v>2705300</v>
       </c>
       <c r="H89" s="3">
-        <v>2348300</v>
+        <v>2298100</v>
       </c>
       <c r="I89" s="3">
-        <v>1978200</v>
+        <v>1935900</v>
       </c>
       <c r="J89" s="3">
-        <v>2219600</v>
+        <v>2172200</v>
       </c>
       <c r="K89" s="3">
         <v>2210000</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2964,37 +2929,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1672200</v>
+        <v>-1636500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1677900</v>
+        <v>-1642100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1518600</v>
+        <v>-1486100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1511700</v>
+        <v>-1479300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1542200</v>
+        <v>-1509200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1376600</v>
+        <v>-1347100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1885700</v>
+        <v>-1845400</v>
       </c>
       <c r="K91" s="3">
         <v>-1839700</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3024,7 +2989,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3054,37 +3019,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1770100</v>
+        <v>-1732200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1595200</v>
+        <v>-1561100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1492000</v>
+        <v>-1460100</v>
       </c>
       <c r="G94" s="3">
-        <v>-879200</v>
+        <v>-860400</v>
       </c>
       <c r="H94" s="3">
-        <v>-671100</v>
+        <v>-656700</v>
       </c>
       <c r="I94" s="3">
-        <v>-372100</v>
+        <v>-364100</v>
       </c>
       <c r="J94" s="3">
-        <v>1165100</v>
+        <v>1140200</v>
       </c>
       <c r="K94" s="3">
         <v>-981400</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3098,37 +3063,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-664700</v>
+        <v>-650500</v>
       </c>
       <c r="E96" s="3">
-        <v>-651300</v>
+        <v>-637400</v>
       </c>
       <c r="F96" s="3">
-        <v>-585300</v>
+        <v>-572800</v>
       </c>
       <c r="G96" s="3">
-        <v>-574500</v>
+        <v>-562200</v>
       </c>
       <c r="H96" s="3">
-        <v>-292200</v>
+        <v>-285900</v>
       </c>
       <c r="I96" s="3">
-        <v>-214600</v>
+        <v>-210000</v>
       </c>
       <c r="J96" s="3">
-        <v>-487300</v>
+        <v>-476900</v>
       </c>
       <c r="K96" s="3">
         <v>-473000</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3158,7 +3123,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3188,7 +3153,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3218,90 +3183,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2819900</v>
+        <v>-2759600</v>
       </c>
       <c r="E100" s="3">
-        <v>-250900</v>
+        <v>-245500</v>
       </c>
       <c r="F100" s="3">
-        <v>217000</v>
+        <v>212400</v>
       </c>
       <c r="G100" s="3">
-        <v>-852600</v>
+        <v>-834400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2907600</v>
+        <v>-2845500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2504600</v>
+        <v>-2451100</v>
       </c>
       <c r="J100" s="3">
-        <v>-3126400</v>
+        <v>-3059600</v>
       </c>
       <c r="K100" s="3">
         <v>-952500</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17600</v>
+        <v>-17200</v>
       </c>
       <c r="E101" s="3">
-        <v>-28400</v>
+        <v>-27800</v>
       </c>
       <c r="F101" s="3">
         <v>-2900</v>
       </c>
       <c r="G101" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
-        <v>-36500</v>
+        <v>-35700</v>
       </c>
       <c r="I101" s="3">
-        <v>102000</v>
+        <v>99800</v>
       </c>
       <c r="J101" s="3">
-        <v>-134400</v>
+        <v>-131500</v>
       </c>
       <c r="K101" s="3">
         <v>-18300</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1923300</v>
+        <v>-1882200</v>
       </c>
       <c r="E102" s="3">
-        <v>875600</v>
+        <v>856900</v>
       </c>
       <c r="F102" s="3">
-        <v>1589700</v>
+        <v>1555800</v>
       </c>
       <c r="G102" s="3">
-        <v>1038400</v>
+        <v>1016200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1266800</v>
+        <v>-1239800</v>
       </c>
       <c r="I102" s="3">
-        <v>-796500</v>
+        <v>-779500</v>
       </c>
       <c r="J102" s="3">
-        <v>123900</v>
+        <v>121200</v>
       </c>
       <c r="K102" s="3">
         <v>257800</v>
